--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_4_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_4_square_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.2900000000002</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>4.800964430811487e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>2.166288828536891e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3453319618501958</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>45.57478620932338</v>
+        <v>49.00137610465953</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[36.43056191944366, 54.71901049920311]</t>
+          <t>[38.31771489841133, 59.68503731090774]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.654131867655887</v>
+        <v>1.867974010242579</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4402897250691948, 1.8679740102425795]</t>
+          <t>[1.6415529180919632, 2.0943951023931957]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>64.00190409824977</v>
+        <v>68.56513316854011</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[58.18139547999327, 69.82241271650626]</t>
+          <t>[62.41390728030426, 74.71635905677597]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.15859859859875</v>
+        <v>16.4432432432434</v>
       </c>
       <c r="X2" t="n">
-        <v>16.36594594594609</v>
+        <v>15.60000000000015</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.95125125125141</v>
+        <v>17.28648648648665</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.58000000000009</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.33066907387547e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.101047627727428e-15</v>
+        <v>2.166288828536891e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>51.74013448404219</v>
+        <v>58.90988150023923</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[38.164924395289944, 65.31534457279443]</t>
+          <t>[43.96084979893658, 73.85891320154188]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2.169819879327406e-12</v>
+        <v>4.771738559838923e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>2.169819879327406e-12</v>
+        <v>4.771738559838923e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2327105669325773</v>
+        <v>1.037763339023655</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.05660527303765406, 0.5220264069028087]</t>
+          <t>[0.761026448617347, 1.3145002294299637]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.1142629711669081</v>
+        <v>4.411360166045597e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1142629711669081</v>
+        <v>4.411360166045597e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>63.03311934797923</v>
+        <v>68.18068274826216</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[55.24016572062942, 70.82607297532904]</t>
+          <t>[60.286301000950594, 76.07506449557371]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.74370370370379</v>
+        <v>19.12606606606618</v>
       </c>
       <c r="X3" t="n">
-        <v>20.70398398398407</v>
+        <v>18.11701701701713</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.78342342342351</v>
+        <v>20.13511511511524</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_4_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_4_square_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.40000000000022</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,18 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.166288828536891e-16</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.3453319618501958</v>
-      </c>
+        <v>4.674623261579606e-16</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>49.00137610465953</v>
+        <v>48.94062745368967</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[38.31771489841133, 59.68503731090774]</t>
+          <t>[39.008303737802514, 58.87295116957683]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -601,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.867974010242579</v>
+        <v>1.452868674633118</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.6415529180919632, 2.0943951023931957]</t>
+          <t>[1.2390265320464247, 1.666710817219811]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -615,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>68.56513316854011</v>
+        <v>66.30807540635578</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[62.41390728030426, 74.71635905677597]</t>
+          <t>[60.10510286171775, 72.51104795099383]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.4432432432434</v>
+        <v>17.68936936936949</v>
       </c>
       <c r="X2" t="n">
-        <v>15.60000000000015</v>
+        <v>16.90624624624636</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.28648648648665</v>
+        <v>18.47249249249262</v>
       </c>
     </row>
     <row r="3">
@@ -654,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.91000000000014</v>
+        <v>22.18000000000003</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>3.231082068566593e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>2.166288828536891e-16</v>
+        <v>1.019142522802676e-11</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>58.90988150023923</v>
+        <v>42.31053993244803</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[43.96084979893658, 73.85891320154188]</t>
+          <t>[28.022854303466545, 56.598225561429516]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.771738559838923e-13</v>
+        <v>2.2246158248862e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>4.771738559838923e-13</v>
+        <v>2.2246158248862e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>1.037763339023655</v>
+        <v>-0.8805264694746171</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.761026448617347, 1.3145002294299637]</t>
+          <t>[-1.2201581077005414, -0.5408948312486928]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>4.411360166045597e-12</v>
+        <v>7.697755159963293e-07</v>
       </c>
       <c r="R3" t="n">
-        <v>4.411360166045597e-12</v>
+        <v>7.697755159963293e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>68.18068274826216</v>
+        <v>61.51541824415474</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[60.286301000950594, 76.07506449557371]</t>
+          <t>[53.909049966544, 69.12178652176549]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.12606606606618</v>
+        <v>3.108308308308313</v>
       </c>
       <c r="X3" t="n">
-        <v>18.11701701701713</v>
+        <v>1.90938938938939</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.13511511511524</v>
+        <v>4.307227227227236</v>
       </c>
     </row>
   </sheetData>
